--- a/BackTest/2020-01-16 BackTest SOC.xlsx
+++ b/BackTest/2020-01-16 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3976513.065456428</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3277325.685256428</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>3641264.270956428</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>3297055.845656428</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2529901.728256428</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1091068.441556428</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>228324.5321564276</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>228324.5321564276</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>228324.5321564276</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>228324.5321564276</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-11800.29334357238</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>254976.8892564276</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>48385.88165642761</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>431110.9619564275</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>629408.1076564275</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>534191.5628564275</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>654302.3830564275</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>375395.1014564275</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>473818.5141564275</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>283110.6863564275</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>93521.2402564275</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>206794.8587564275</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>321798.7746564275</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>109069.2120564275</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>279364.1137564275</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>472446.2599564275</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>600923.4191564275</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>645649.1822564275</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>695553.0652564275</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>596989.2794564276</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>516560.0087564276</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>383243.0515564276</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>301868.2386564275</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>351817.4876564275</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>351817.4876564275</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>351817.4876564275</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>280148.8342564275</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>302269.6699564275</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>302269.6699564275</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>302269.6699564275</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>248112.0442427912</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>206520.5166427912</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>113786.2064427912</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>256611.1168427912</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>115347.3873003411</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-284592.999799659</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-284592.999799659</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-284592.999799659</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-284592.999799659</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-284663.6650996589</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-285663.6650996589</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-298113.7593996589</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-301486.6436996589</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-356474.8821996589</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-654178.5817054559</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-740915.1461054559</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-638250.1265054559</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-447864.5884054559</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-601507.5983054559</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-744560.2958054559</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-838991.9408054559</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-908881.2692054559</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-565597.5919054558</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-549069.8991054558</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-644038.3183054558</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-725813.7389054557</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-725813.7389054557</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-725813.7389054557</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-731629.9528054557</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-731629.9528054557</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-778612.2728054556</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-134741.3834054555</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-86534.81980545554</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-98224.10870545554</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-82213.65570545555</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-103304.8373054555</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-200888.1511054555</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-170487.5262054555</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-98990.37110545553</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-88260.28890545553</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-78436.50090545553</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-90071.41350545552</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-127208.7906054555</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-336803.8313054555</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-336597.0197112527</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>19645.86628874735</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>19155.53318874735</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>19155.53318874735</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-368.7514112526551</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-593545.0952112527</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-610710.9096999052</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-577332.1038999051</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-452551.7197999051</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-409599.5338999051</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-291273.5614818839</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-270654.280181884</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-170505.7782818839</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-188397.7118818839</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-168552.1246818839</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-22970.60808188393</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>169355.7476181161</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>141065.6565181161</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>114869.3029181161</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>197286.8771181161</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>85395.65181811606</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>85395.65181811606</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>89372.10161811607</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>89372.10161811607</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>136278.4099181161</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>121860.9184181161</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>163473.029218116</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>163473.029218116</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>163473.029218116</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>163473.029218116</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>163473.029218116</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>3158.984518116049</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>3158.984518116049</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>3158.984518116049</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-79720.32398188395</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-92052.38028188395</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-736904.3627818839</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-735442.6009818839</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1589654.035770976</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13585,14 +13585,10 @@
         <v>-3624622.807588661</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
-      </c>
-      <c r="I400" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J400" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
@@ -13622,19 +13618,15 @@
         <v>-3614803.053488661</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>12.22</v>
       </c>
       <c r="J401" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>12.22</v>
+      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13663,17 +13655,17 @@
         <v>-3611777.210588661</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>12.3</v>
       </c>
       <c r="J402" t="n">
-        <v>12.3</v>
+        <v>12.22</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L402" t="n">
@@ -13704,17 +13696,17 @@
         <v>-3588897.756588661</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>12.4</v>
       </c>
       <c r="J403" t="n">
-        <v>12.3</v>
+        <v>12.22</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L403" t="n">
@@ -13745,19 +13737,15 @@
         <v>-3574120.252888661</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>12.7</v>
       </c>
       <c r="J404" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>12.7</v>
+      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13786,17 +13774,17 @@
         <v>-3342461.905588661</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>12.8</v>
       </c>
       <c r="J405" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L405" t="n">
@@ -13827,15 +13815,17 @@
         <v>-2993955.983088661</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J406" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L406" t="n">
@@ -13869,14 +13859,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13908,14 +13892,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13944,17 +13922,11 @@
         <v>-3249373.458367972</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13983,17 +13955,11 @@
         <v>-3033506.243767972</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14022,17 +13988,11 @@
         <v>-3033506.243767972</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14064,14 +14024,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14103,14 +14057,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14139,17 +14087,11 @@
         <v>-2495135.512267972</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14178,17 +14120,11 @@
         <v>-2446838.890067972</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14220,14 +14156,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14259,14 +14189,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14298,14 +14222,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14334,17 +14252,11 @@
         <v>-2445487.115067972</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14376,14 +14288,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14415,14 +14321,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14454,14 +14354,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14493,14 +14387,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14532,14 +14420,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14568,17 +14450,11 @@
         <v>-2526712.163867972</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14607,17 +14483,11 @@
         <v>-2526205.194067972</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14646,17 +14516,11 @@
         <v>-2570406.545167972</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14685,17 +14549,11 @@
         <v>-2540253.378880989</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14724,17 +14582,11 @@
         <v>-2548694.407480989</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14763,17 +14615,11 @@
         <v>-2548694.407480989</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14802,17 +14648,11 @@
         <v>-2548694.407480989</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14844,14 +14684,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14880,17 +14714,11 @@
         <v>-2548694.407480989</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14919,17 +14747,11 @@
         <v>-2548694.407480989</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14958,17 +14780,11 @@
         <v>-2526763.980780989</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15000,14 +14816,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15036,17 +14846,11 @@
         <v>-2526763.980780989</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15075,17 +14879,11 @@
         <v>-2469881.763880989</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15114,17 +14912,11 @@
         <v>-2426266.523180989</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15153,17 +14945,11 @@
         <v>-2426266.523180989</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15192,17 +14978,11 @@
         <v>-2374971.187180989</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15231,17 +15011,11 @@
         <v>-2374421.161580989</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15270,17 +15044,11 @@
         <v>-2378421.161580989</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15312,14 +15080,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15351,14 +15113,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15387,17 +15143,11 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15426,17 +15176,11 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15468,14 +15212,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15507,14 +15245,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15543,17 +15275,11 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15582,17 +15308,11 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15624,14 +15344,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15663,14 +15377,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15702,14 +15410,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15741,14 +15443,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15780,14 +15476,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15819,14 +15509,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15858,14 +15542,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15897,14 +15575,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15936,14 +15608,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15975,14 +15641,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16014,14 +15674,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16053,14 +15707,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16092,14 +15740,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16131,14 +15773,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16170,14 +15806,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16209,14 +15839,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16248,14 +15872,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16287,14 +15905,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16326,14 +15938,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16365,14 +15971,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16404,14 +16004,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16443,14 +16037,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16482,14 +16070,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16521,14 +16103,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16560,14 +16136,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16599,14 +16169,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16638,14 +16202,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16677,14 +16235,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16716,14 +16268,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16755,14 +16301,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16791,23 +16331,15 @@
         <v>-2336866.063480989</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
-        <v>1.126707317073171</v>
-      </c>
-      <c r="M482" t="n">
-        <v>1.170212765957447</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -16832,7 +16364,7 @@
         <v>-2200766.957680989</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16865,7 +16397,7 @@
         <v>-2200766.957680989</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16898,7 +16430,7 @@
         <v>-2182889.059780989</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16931,7 +16463,7 @@
         <v>-2152847.388080989</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16964,7 +16496,7 @@
         <v>-2152847.388080989</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16997,7 +16529,7 @@
         <v>-2152847.388080989</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17030,7 +16562,7 @@
         <v>-2177374.904935111</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17063,7 +16595,7 @@
         <v>-2195330.129435111</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17096,7 +16628,7 @@
         <v>-2231457.978531818</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17129,7 +16661,7 @@
         <v>-2231457.978531818</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17162,7 +16694,7 @@
         <v>-2206403.197831818</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17195,7 +16727,7 @@
         <v>-2206403.197831818</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17228,7 +16760,7 @@
         <v>-2243651.169531818</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17261,7 +16793,7 @@
         <v>-2249686.315711129</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17294,7 +16826,7 @@
         <v>-2249686.315711129</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17327,7 +16859,7 @@
         <v>-2346851.148311128</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17360,7 +16892,7 @@
         <v>-2456174.648011128</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17393,7 +16925,7 @@
         <v>-2840499.585011128</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -24686,2022 +24218,1766 @@
         <v>-6809245.324478683</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
-      </c>
-      <c r="I721" t="n">
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
+      <c r="L721" t="n">
+        <v>1</v>
+      </c>
+      <c r="M721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="n">
         <v>12.68</v>
       </c>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
+      <c r="C722" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="D722" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="E722" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="F722" t="n">
+        <v>77186.7954</v>
+      </c>
+      <c r="G722" t="n">
+        <v>-6809245.324478683</v>
+      </c>
+      <c r="H722" t="n">
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
+      <c r="L722" t="n">
+        <v>1</v>
+      </c>
+      <c r="M722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="C723" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D723" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="E723" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="F723" t="n">
+        <v>0.1188</v>
+      </c>
+      <c r="G723" t="n">
+        <v>-6809245.205678683</v>
+      </c>
+      <c r="H723" t="n">
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
+      <c r="L723" t="n">
+        <v>1</v>
+      </c>
+      <c r="M723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C724" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D724" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E724" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F724" t="n">
+        <v>2088.1065</v>
+      </c>
+      <c r="G724" t="n">
+        <v>-6807157.099178683</v>
+      </c>
+      <c r="H724" t="n">
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
+      <c r="L724" t="n">
+        <v>1</v>
+      </c>
+      <c r="M724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C725" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D725" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E725" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F725" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G725" t="n">
+        <v>-6807157.099178683</v>
+      </c>
+      <c r="H725" t="n">
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
+      <c r="L725" t="n">
+        <v>1</v>
+      </c>
+      <c r="M725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="C726" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D726" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="E726" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F726" t="n">
+        <v>15000.0374</v>
+      </c>
+      <c r="G726" t="n">
+        <v>-6807157.099178683</v>
+      </c>
+      <c r="H726" t="n">
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
+      <c r="L726" t="n">
+        <v>1</v>
+      </c>
+      <c r="M726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="C727" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="D727" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="E727" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="F727" t="n">
+        <v>15000.0374</v>
+      </c>
+      <c r="G727" t="n">
+        <v>-6792157.061778683</v>
+      </c>
+      <c r="H727" t="n">
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
+      <c r="L727" t="n">
+        <v>1</v>
+      </c>
+      <c r="M727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="C728" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="D728" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="E728" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="F728" t="n">
+        <v>60.1278</v>
+      </c>
+      <c r="G728" t="n">
+        <v>-6792157.061778683</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
+      <c r="L728" t="n">
+        <v>1</v>
+      </c>
+      <c r="M728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="C729" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="D729" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="E729" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="F729" t="n">
+        <v>29.2518</v>
+      </c>
+      <c r="G729" t="n">
+        <v>-6792157.061778683</v>
+      </c>
+      <c r="H729" t="n">
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
+      <c r="L729" t="n">
+        <v>1</v>
+      </c>
+      <c r="M729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="C730" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D730" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="E730" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F730" t="n">
+        <v>18906.2303</v>
+      </c>
+      <c r="G730" t="n">
+        <v>-6811063.292078683</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
+      <c r="L730" t="n">
+        <v>1</v>
+      </c>
+      <c r="M730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="C731" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="D731" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="E731" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="F731" t="n">
+        <v>18967.4025</v>
+      </c>
+      <c r="G731" t="n">
+        <v>-6792095.889578683</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
+      <c r="L731" t="n">
+        <v>1</v>
+      </c>
+      <c r="M731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="C732" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="D732" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="E732" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="F732" t="n">
+        <v>15806</v>
+      </c>
+      <c r="G732" t="n">
+        <v>-6776289.889578683</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="n">
+        <v>1</v>
+      </c>
+      <c r="M732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="C733" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="D733" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="E733" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="F733" t="n">
+        <v>3629.3254</v>
+      </c>
+      <c r="G733" t="n">
+        <v>-6776289.889578683</v>
+      </c>
+      <c r="H733" t="n">
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
+      <c r="L733" t="n">
+        <v>1</v>
+      </c>
+      <c r="M733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="C734" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="D734" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="E734" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="F734" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G734" t="n">
+        <v>-6776289.889578683</v>
+      </c>
+      <c r="H734" t="n">
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="n">
+        <v>1</v>
+      </c>
+      <c r="M734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="C735" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="D735" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="E735" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="F735" t="n">
+        <v>19796.4393</v>
+      </c>
+      <c r="G735" t="n">
+        <v>-6776289.889578683</v>
+      </c>
+      <c r="H735" t="n">
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
+      <c r="L735" t="n">
+        <v>1</v>
+      </c>
+      <c r="M735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="C736" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="D736" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="E736" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="F736" t="n">
+        <v>21395.6889</v>
+      </c>
+      <c r="G736" t="n">
+        <v>-6797685.578478684</v>
+      </c>
+      <c r="H736" t="n">
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
+      <c r="L736" t="n">
+        <v>1</v>
+      </c>
+      <c r="M736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="C737" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="D737" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="E737" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="F737" t="n">
+        <v>29438.9167</v>
+      </c>
+      <c r="G737" t="n">
+        <v>-6768246.661778684</v>
+      </c>
+      <c r="H737" t="n">
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="n">
+        <v>1</v>
+      </c>
+      <c r="M737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="C738" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D738" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E738" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="F738" t="n">
+        <v>23476.9513</v>
+      </c>
+      <c r="G738" t="n">
+        <v>-6744769.710478684</v>
+      </c>
+      <c r="H738" t="n">
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="n">
+        <v>1</v>
+      </c>
+      <c r="M738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C739" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D739" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E739" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F739" t="n">
+        <v>165.7309</v>
+      </c>
+      <c r="G739" t="n">
+        <v>-6744769.710478684</v>
+      </c>
+      <c r="H739" t="n">
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="n">
+        <v>1</v>
+      </c>
+      <c r="M739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C740" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D740" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E740" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F740" t="n">
+        <v>1562.5</v>
+      </c>
+      <c r="G740" t="n">
+        <v>-6744769.710478684</v>
+      </c>
+      <c r="H740" t="n">
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="n">
+        <v>1</v>
+      </c>
+      <c r="M740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C741" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D741" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E741" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F741" t="n">
+        <v>780</v>
+      </c>
+      <c r="G741" t="n">
+        <v>-6744769.710478684</v>
+      </c>
+      <c r="H741" t="n">
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
+      <c r="L741" t="n">
+        <v>1</v>
+      </c>
+      <c r="M741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="C742" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="D742" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="E742" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="F742" t="n">
+        <v>6532.463</v>
+      </c>
+      <c r="G742" t="n">
+        <v>-6751302.173478684</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
+      <c r="L742" t="n">
+        <v>1</v>
+      </c>
+      <c r="M742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="C743" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="D743" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E743" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="F743" t="n">
+        <v>140.6005</v>
+      </c>
+      <c r="G743" t="n">
+        <v>-6751161.572978685</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
+      <c r="L743" t="n">
+        <v>1</v>
+      </c>
+      <c r="M743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="C744" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="D744" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E744" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="F744" t="n">
+        <v>87.5611</v>
+      </c>
+      <c r="G744" t="n">
+        <v>-6751161.572978685</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
+      <c r="L744" t="n">
+        <v>1</v>
+      </c>
+      <c r="M744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="C745" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="D745" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E745" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="F745" t="n">
+        <v>2905.9716</v>
+      </c>
+      <c r="G745" t="n">
+        <v>-6751161.572978685</v>
+      </c>
+      <c r="H745" t="n">
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
+      <c r="L745" t="n">
+        <v>1</v>
+      </c>
+      <c r="M745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C746" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D746" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E746" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F746" t="n">
+        <v>109928.586125</v>
+      </c>
+      <c r="G746" t="n">
+        <v>-6641232.986853684</v>
+      </c>
+      <c r="H746" t="n">
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
+      <c r="L746" t="n">
+        <v>1</v>
+      </c>
+      <c r="M746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C747" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D747" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E747" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F747" t="n">
+        <v>100</v>
+      </c>
+      <c r="G747" t="n">
+        <v>-6641232.986853684</v>
+      </c>
+      <c r="H747" t="n">
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
+      <c r="L747" t="n">
+        <v>1</v>
+      </c>
+      <c r="M747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="C748" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="D748" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="E748" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="F748" t="n">
+        <v>47592</v>
+      </c>
+      <c r="G748" t="n">
+        <v>-6593640.986853684</v>
+      </c>
+      <c r="H748" t="n">
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
+      <c r="L748" t="n">
+        <v>1</v>
+      </c>
+      <c r="M748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="C749" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="D749" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="E749" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="F749" t="n">
+        <v>74922.5307</v>
+      </c>
+      <c r="G749" t="n">
+        <v>-6518718.456153684</v>
+      </c>
+      <c r="H749" t="n">
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
+      <c r="L749" t="n">
+        <v>1</v>
+      </c>
+      <c r="M749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="C750" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="D750" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="E750" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="F750" t="n">
+        <v>86297.0095</v>
+      </c>
+      <c r="G750" t="n">
+        <v>-6605015.465653684</v>
+      </c>
+      <c r="H750" t="n">
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
+      <c r="L750" t="n">
+        <v>1</v>
+      </c>
+      <c r="M750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="n">
+        <v>13</v>
+      </c>
+      <c r="C751" t="n">
+        <v>13</v>
+      </c>
+      <c r="D751" t="n">
+        <v>13</v>
+      </c>
+      <c r="E751" t="n">
+        <v>13</v>
+      </c>
+      <c r="F751" t="n">
+        <v>241063.1034</v>
+      </c>
+      <c r="G751" t="n">
+        <v>-6363952.362253684</v>
+      </c>
+      <c r="H751" t="n">
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
+      <c r="L751" t="n">
+        <v>1</v>
+      </c>
+      <c r="M751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C752" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D752" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E752" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F752" t="n">
+        <v>82117.56600000001</v>
+      </c>
+      <c r="G752" t="n">
+        <v>-6281834.796253684</v>
+      </c>
+      <c r="H752" t="n">
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
+      <c r="L752" t="n">
+        <v>1</v>
+      </c>
+      <c r="M752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C753" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D753" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E753" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F753" t="n">
+        <v>110028.5861</v>
+      </c>
+      <c r="G753" t="n">
+        <v>-6281834.796253684</v>
+      </c>
+      <c r="H753" t="n">
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
+      <c r="L753" t="n">
+        <v>1</v>
+      </c>
+      <c r="M753" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C754" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D754" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E754" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F754" t="n">
+        <v>115422.0176</v>
+      </c>
+      <c r="G754" t="n">
+        <v>-6281834.796253684</v>
+      </c>
+      <c r="H754" t="n">
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
+      <c r="L754" t="n">
+        <v>1</v>
+      </c>
+      <c r="M754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="C755" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="D755" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="E755" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="F755" t="n">
+        <v>200</v>
+      </c>
+      <c r="G755" t="n">
+        <v>-6281634.796253684</v>
+      </c>
+      <c r="H755" t="n">
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
+      <c r="L755" t="n">
+        <v>1</v>
+      </c>
+      <c r="M755" t="inlineStr"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="C756" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="D756" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="E756" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="F756" t="n">
+        <v>547.5084000000001</v>
+      </c>
+      <c r="G756" t="n">
+        <v>-6282182.304653684</v>
+      </c>
+      <c r="H756" t="n">
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
+      <c r="L756" t="n">
+        <v>1</v>
+      </c>
+      <c r="M756" t="inlineStr"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="C757" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="D757" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="E757" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="F757" t="n">
+        <v>376.7897513187641</v>
+      </c>
+      <c r="G757" t="n">
+        <v>-6282559.094405003</v>
+      </c>
+      <c r="H757" t="n">
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
+      <c r="L757" t="n">
+        <v>1</v>
+      </c>
+      <c r="M757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="C758" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="D758" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="E758" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="F758" t="n">
+        <v>441.0789</v>
+      </c>
+      <c r="G758" t="n">
+        <v>-6282559.094405003</v>
+      </c>
+      <c r="H758" t="n">
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
+      <c r="L758" t="n">
+        <v>1</v>
+      </c>
+      <c r="M758" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="C759" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="D759" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="E759" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="F759" t="n">
+        <v>300</v>
+      </c>
+      <c r="G759" t="n">
+        <v>-6282259.094405003</v>
+      </c>
+      <c r="H759" t="n">
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
+      <c r="L759" t="n">
+        <v>1</v>
+      </c>
+      <c r="M759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="C760" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="D760" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="E760" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="F760" t="n">
+        <v>13658.8964</v>
+      </c>
+      <c r="G760" t="n">
+        <v>-6282259.094405003</v>
+      </c>
+      <c r="H760" t="n">
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
+      <c r="L760" t="n">
+        <v>1</v>
+      </c>
+      <c r="M760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="C761" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="D761" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="E761" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="F761" t="n">
+        <v>300</v>
+      </c>
+      <c r="G761" t="n">
+        <v>-6282259.094405003</v>
+      </c>
+      <c r="H761" t="n">
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
+      <c r="L761" t="n">
+        <v>1</v>
+      </c>
+      <c r="M761" t="inlineStr"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C762" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D762" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E762" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F762" t="n">
+        <v>2706.4823</v>
+      </c>
+      <c r="G762" t="n">
+        <v>-6284965.576705003</v>
+      </c>
+      <c r="H762" t="n">
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
+      <c r="L762" t="n">
+        <v>1</v>
+      </c>
+      <c r="M762" t="inlineStr"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C763" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D763" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E763" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F763" t="n">
+        <v>47291.4707</v>
+      </c>
+      <c r="G763" t="n">
+        <v>-6237674.106005003</v>
+      </c>
+      <c r="H763" t="n">
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
+      <c r="L763" t="n">
+        <v>1</v>
+      </c>
+      <c r="M763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="n">
+        <v>13</v>
+      </c>
+      <c r="C764" t="n">
+        <v>13</v>
+      </c>
+      <c r="D764" t="n">
+        <v>13</v>
+      </c>
+      <c r="E764" t="n">
+        <v>13</v>
+      </c>
+      <c r="F764" t="n">
+        <v>4293.0565</v>
+      </c>
+      <c r="G764" t="n">
+        <v>-6241967.162505003</v>
+      </c>
+      <c r="H764" t="n">
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
+      <c r="L764" t="n">
+        <v>1</v>
+      </c>
+      <c r="M764" t="inlineStr"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="n">
+        <v>13</v>
+      </c>
+      <c r="C765" t="n">
+        <v>13</v>
+      </c>
+      <c r="D765" t="n">
+        <v>13</v>
+      </c>
+      <c r="E765" t="n">
+        <v>13</v>
+      </c>
+      <c r="F765" t="n">
+        <v>133101.5717</v>
+      </c>
+      <c r="G765" t="n">
+        <v>-6241967.162505003</v>
+      </c>
+      <c r="H765" t="n">
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
+      <c r="L765" t="n">
+        <v>1</v>
+      </c>
+      <c r="M765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C766" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="D766" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="E766" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F766" t="n">
+        <v>156416.8639</v>
+      </c>
+      <c r="G766" t="n">
+        <v>-6085550.298605002</v>
+      </c>
+      <c r="H766" t="n">
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
+      <c r="L766" t="n">
+        <v>1</v>
+      </c>
+      <c r="M766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C767" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D767" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E767" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F767" t="n">
+        <v>107854.6613</v>
+      </c>
+      <c r="G767" t="n">
+        <v>-6193404.959905002</v>
+      </c>
+      <c r="H767" t="n">
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
+      <c r="L767" t="n">
+        <v>1</v>
+      </c>
+      <c r="M767" t="inlineStr"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="C768" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="D768" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="E768" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="F768" t="n">
+        <v>20211.8449</v>
+      </c>
+      <c r="G768" t="n">
+        <v>-6213616.804805002</v>
+      </c>
+      <c r="H768" t="n">
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
+      <c r="L768" t="n">
+        <v>1</v>
+      </c>
+      <c r="M768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="C769" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="D769" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="E769" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="F769" t="n">
+        <v>18223.417</v>
+      </c>
+      <c r="G769" t="n">
+        <v>-6231840.221805003</v>
+      </c>
+      <c r="H769" t="n">
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
+      <c r="L769" t="n">
+        <v>1</v>
+      </c>
+      <c r="M769" t="inlineStr"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="C770" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="D770" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="E770" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="F770" t="n">
+        <v>18632.7004</v>
+      </c>
+      <c r="G770" t="n">
+        <v>-6250472.922205003</v>
+      </c>
+      <c r="H770" t="n">
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
+      <c r="L770" t="n">
+        <v>1</v>
+      </c>
+      <c r="M770" t="inlineStr"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="C771" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="D771" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="E771" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="F771" t="n">
+        <v>547.5084000000001</v>
+      </c>
+      <c r="G771" t="n">
+        <v>-6250472.922205003</v>
+      </c>
+      <c r="H771" t="n">
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
+      <c r="L771" t="n">
+        <v>1</v>
+      </c>
+      <c r="M771" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="C772" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="D772" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="E772" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="F772" t="n">
+        <v>11145.321</v>
+      </c>
+      <c r="G772" t="n">
+        <v>-6250472.922205003</v>
+      </c>
+      <c r="H772" t="n">
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
+      <c r="L772" t="n">
+        <v>1</v>
+      </c>
+      <c r="M772" t="inlineStr"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="C773" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="D773" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="E773" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="F773" t="n">
+        <v>10555.1354</v>
+      </c>
+      <c r="G773" t="n">
+        <v>-6250472.922205003</v>
+      </c>
+      <c r="H773" t="n">
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
+      <c r="L773" t="n">
+        <v>1</v>
+      </c>
+      <c r="M773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="C774" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="D774" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="E774" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="F774" t="n">
+        <v>18643.0193</v>
+      </c>
+      <c r="G774" t="n">
+        <v>-6231829.902905003</v>
+      </c>
+      <c r="H774" t="n">
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L721" t="n">
-        <v>1</v>
-      </c>
-      <c r="M721" t="inlineStr"/>
-    </row>
-    <row r="722">
-      <c r="A722" s="1" t="n">
-        <v>720</v>
-      </c>
-      <c r="B722" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="C722" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="D722" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="E722" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="F722" t="n">
-        <v>77186.7954</v>
-      </c>
-      <c r="G722" t="n">
-        <v>-6809245.324478683</v>
-      </c>
-      <c r="H722" t="n">
-        <v>2</v>
-      </c>
-      <c r="I722" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L722" t="n">
-        <v>1</v>
-      </c>
-      <c r="M722" t="inlineStr"/>
-    </row>
-    <row r="723">
-      <c r="A723" s="1" t="n">
-        <v>721</v>
-      </c>
-      <c r="B723" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="C723" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="D723" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="E723" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="F723" t="n">
-        <v>0.1188</v>
-      </c>
-      <c r="G723" t="n">
-        <v>-6809245.205678683</v>
-      </c>
-      <c r="H723" t="n">
-        <v>2</v>
-      </c>
-      <c r="I723" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L723" t="n">
-        <v>1</v>
-      </c>
-      <c r="M723" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" s="1" t="n">
-        <v>722</v>
-      </c>
-      <c r="B724" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C724" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D724" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E724" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F724" t="n">
-        <v>2088.1065</v>
-      </c>
-      <c r="G724" t="n">
-        <v>-6807157.099178683</v>
-      </c>
-      <c r="H724" t="n">
-        <v>2</v>
-      </c>
-      <c r="I724" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L724" t="n">
-        <v>1</v>
-      </c>
-      <c r="M724" t="inlineStr"/>
-    </row>
-    <row r="725">
-      <c r="A725" s="1" t="n">
-        <v>723</v>
-      </c>
-      <c r="B725" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C725" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D725" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E725" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F725" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G725" t="n">
-        <v>-6807157.099178683</v>
-      </c>
-      <c r="H725" t="n">
-        <v>2</v>
-      </c>
-      <c r="I725" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L725" t="n">
-        <v>1</v>
-      </c>
-      <c r="M725" t="inlineStr"/>
-    </row>
-    <row r="726">
-      <c r="A726" s="1" t="n">
-        <v>724</v>
-      </c>
-      <c r="B726" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="C726" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D726" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="E726" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F726" t="n">
-        <v>15000.0374</v>
-      </c>
-      <c r="G726" t="n">
-        <v>-6807157.099178683</v>
-      </c>
-      <c r="H726" t="n">
-        <v>2</v>
-      </c>
-      <c r="I726" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L726" t="n">
-        <v>1</v>
-      </c>
-      <c r="M726" t="inlineStr"/>
-    </row>
-    <row r="727">
-      <c r="A727" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="B727" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="C727" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="D727" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="E727" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="F727" t="n">
-        <v>15000.0374</v>
-      </c>
-      <c r="G727" t="n">
-        <v>-6792157.061778683</v>
-      </c>
-      <c r="H727" t="n">
-        <v>2</v>
-      </c>
-      <c r="I727" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L727" t="n">
-        <v>1</v>
-      </c>
-      <c r="M727" t="inlineStr"/>
-    </row>
-    <row r="728">
-      <c r="A728" s="1" t="n">
-        <v>726</v>
-      </c>
-      <c r="B728" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="C728" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="D728" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="E728" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="F728" t="n">
-        <v>60.1278</v>
-      </c>
-      <c r="G728" t="n">
-        <v>-6792157.061778683</v>
-      </c>
-      <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L728" t="n">
-        <v>1</v>
-      </c>
-      <c r="M728" t="inlineStr"/>
-    </row>
-    <row r="729">
-      <c r="A729" s="1" t="n">
-        <v>727</v>
-      </c>
-      <c r="B729" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="C729" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="D729" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="E729" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="F729" t="n">
-        <v>29.2518</v>
-      </c>
-      <c r="G729" t="n">
-        <v>-6792157.061778683</v>
-      </c>
-      <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L729" t="n">
-        <v>1</v>
-      </c>
-      <c r="M729" t="inlineStr"/>
-    </row>
-    <row r="730">
-      <c r="A730" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="B730" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="C730" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D730" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="E730" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F730" t="n">
-        <v>18906.2303</v>
-      </c>
-      <c r="G730" t="n">
-        <v>-6811063.292078683</v>
-      </c>
-      <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L730" t="n">
-        <v>1</v>
-      </c>
-      <c r="M730" t="inlineStr"/>
-    </row>
-    <row r="731">
-      <c r="A731" s="1" t="n">
-        <v>729</v>
-      </c>
-      <c r="B731" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="C731" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="D731" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="E731" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="F731" t="n">
-        <v>18967.4025</v>
-      </c>
-      <c r="G731" t="n">
-        <v>-6792095.889578683</v>
-      </c>
-      <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L731" t="n">
-        <v>1</v>
-      </c>
-      <c r="M731" t="inlineStr"/>
-    </row>
-    <row r="732">
-      <c r="A732" s="1" t="n">
-        <v>730</v>
-      </c>
-      <c r="B732" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="C732" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="D732" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="E732" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="F732" t="n">
-        <v>15806</v>
-      </c>
-      <c r="G732" t="n">
-        <v>-6776289.889578683</v>
-      </c>
-      <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L732" t="n">
-        <v>1</v>
-      </c>
-      <c r="M732" t="inlineStr"/>
-    </row>
-    <row r="733">
-      <c r="A733" s="1" t="n">
-        <v>731</v>
-      </c>
-      <c r="B733" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="C733" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="D733" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="E733" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="F733" t="n">
-        <v>3629.3254</v>
-      </c>
-      <c r="G733" t="n">
-        <v>-6776289.889578683</v>
-      </c>
-      <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L733" t="n">
-        <v>1</v>
-      </c>
-      <c r="M733" t="inlineStr"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="1" t="n">
-        <v>732</v>
-      </c>
-      <c r="B734" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="C734" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="D734" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="E734" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="F734" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G734" t="n">
-        <v>-6776289.889578683</v>
-      </c>
-      <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L734" t="n">
-        <v>1</v>
-      </c>
-      <c r="M734" t="inlineStr"/>
-    </row>
-    <row r="735">
-      <c r="A735" s="1" t="n">
-        <v>733</v>
-      </c>
-      <c r="B735" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="C735" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="D735" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="E735" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="F735" t="n">
-        <v>19796.4393</v>
-      </c>
-      <c r="G735" t="n">
-        <v>-6776289.889578683</v>
-      </c>
-      <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L735" t="n">
-        <v>1</v>
-      </c>
-      <c r="M735" t="inlineStr"/>
-    </row>
-    <row r="736">
-      <c r="A736" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="B736" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="C736" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="D736" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="E736" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="F736" t="n">
-        <v>21395.6889</v>
-      </c>
-      <c r="G736" t="n">
-        <v>-6797685.578478684</v>
-      </c>
-      <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L736" t="n">
-        <v>1</v>
-      </c>
-      <c r="M736" t="inlineStr"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="1" t="n">
-        <v>735</v>
-      </c>
-      <c r="B737" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="C737" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="D737" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="E737" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="F737" t="n">
-        <v>29438.9167</v>
-      </c>
-      <c r="G737" t="n">
-        <v>-6768246.661778684</v>
-      </c>
-      <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L737" t="n">
-        <v>1</v>
-      </c>
-      <c r="M737" t="inlineStr"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="B738" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="C738" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D738" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E738" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="F738" t="n">
-        <v>23476.9513</v>
-      </c>
-      <c r="G738" t="n">
-        <v>-6744769.710478684</v>
-      </c>
-      <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L738" t="n">
-        <v>1</v>
-      </c>
-      <c r="M738" t="inlineStr"/>
-    </row>
-    <row r="739">
-      <c r="A739" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="B739" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C739" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D739" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E739" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F739" t="n">
-        <v>165.7309</v>
-      </c>
-      <c r="G739" t="n">
-        <v>-6744769.710478684</v>
-      </c>
-      <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L739" t="n">
-        <v>1</v>
-      </c>
-      <c r="M739" t="inlineStr"/>
-    </row>
-    <row r="740">
-      <c r="A740" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="B740" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C740" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D740" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E740" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F740" t="n">
-        <v>1562.5</v>
-      </c>
-      <c r="G740" t="n">
-        <v>-6744769.710478684</v>
-      </c>
-      <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L740" t="n">
-        <v>1</v>
-      </c>
-      <c r="M740" t="inlineStr"/>
-    </row>
-    <row r="741">
-      <c r="A741" s="1" t="n">
-        <v>739</v>
-      </c>
-      <c r="B741" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C741" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D741" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E741" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F741" t="n">
-        <v>780</v>
-      </c>
-      <c r="G741" t="n">
-        <v>-6744769.710478684</v>
-      </c>
-      <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L741" t="n">
-        <v>1</v>
-      </c>
-      <c r="M741" t="inlineStr"/>
-    </row>
-    <row r="742">
-      <c r="A742" s="1" t="n">
-        <v>740</v>
-      </c>
-      <c r="B742" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="C742" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="D742" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="E742" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="F742" t="n">
-        <v>6532.463</v>
-      </c>
-      <c r="G742" t="n">
-        <v>-6751302.173478684</v>
-      </c>
-      <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L742" t="n">
-        <v>1</v>
-      </c>
-      <c r="M742" t="inlineStr"/>
-    </row>
-    <row r="743">
-      <c r="A743" s="1" t="n">
-        <v>741</v>
-      </c>
-      <c r="B743" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="C743" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="D743" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="E743" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="F743" t="n">
-        <v>140.6005</v>
-      </c>
-      <c r="G743" t="n">
-        <v>-6751161.572978685</v>
-      </c>
-      <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L743" t="n">
-        <v>1</v>
-      </c>
-      <c r="M743" t="inlineStr"/>
-    </row>
-    <row r="744">
-      <c r="A744" s="1" t="n">
-        <v>742</v>
-      </c>
-      <c r="B744" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="C744" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="D744" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="E744" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="F744" t="n">
-        <v>87.5611</v>
-      </c>
-      <c r="G744" t="n">
-        <v>-6751161.572978685</v>
-      </c>
-      <c r="H744" t="n">
-        <v>2</v>
-      </c>
-      <c r="I744" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L744" t="n">
-        <v>1</v>
-      </c>
-      <c r="M744" t="inlineStr"/>
-    </row>
-    <row r="745">
-      <c r="A745" s="1" t="n">
-        <v>743</v>
-      </c>
-      <c r="B745" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="C745" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="D745" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="E745" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="F745" t="n">
-        <v>2905.9716</v>
-      </c>
-      <c r="G745" t="n">
-        <v>-6751161.572978685</v>
-      </c>
-      <c r="H745" t="n">
-        <v>2</v>
-      </c>
-      <c r="I745" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L745" t="n">
-        <v>1</v>
-      </c>
-      <c r="M745" t="inlineStr"/>
-    </row>
-    <row r="746">
-      <c r="A746" s="1" t="n">
-        <v>744</v>
-      </c>
-      <c r="B746" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C746" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D746" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E746" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F746" t="n">
-        <v>109928.586125</v>
-      </c>
-      <c r="G746" t="n">
-        <v>-6641232.986853684</v>
-      </c>
-      <c r="H746" t="n">
-        <v>2</v>
-      </c>
-      <c r="I746" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L746" t="n">
-        <v>1</v>
-      </c>
-      <c r="M746" t="inlineStr"/>
-    </row>
-    <row r="747">
-      <c r="A747" s="1" t="n">
-        <v>745</v>
-      </c>
-      <c r="B747" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C747" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D747" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E747" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F747" t="n">
-        <v>100</v>
-      </c>
-      <c r="G747" t="n">
-        <v>-6641232.986853684</v>
-      </c>
-      <c r="H747" t="n">
-        <v>2</v>
-      </c>
-      <c r="I747" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L747" t="n">
-        <v>1</v>
-      </c>
-      <c r="M747" t="inlineStr"/>
-    </row>
-    <row r="748">
-      <c r="A748" s="1" t="n">
-        <v>746</v>
-      </c>
-      <c r="B748" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="C748" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="D748" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="E748" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="F748" t="n">
-        <v>47592</v>
-      </c>
-      <c r="G748" t="n">
-        <v>-6593640.986853684</v>
-      </c>
-      <c r="H748" t="n">
-        <v>2</v>
-      </c>
-      <c r="I748" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L748" t="n">
-        <v>1</v>
-      </c>
-      <c r="M748" t="inlineStr"/>
-    </row>
-    <row r="749">
-      <c r="A749" s="1" t="n">
-        <v>747</v>
-      </c>
-      <c r="B749" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="C749" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="D749" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="E749" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="F749" t="n">
-        <v>74922.5307</v>
-      </c>
-      <c r="G749" t="n">
-        <v>-6518718.456153684</v>
-      </c>
-      <c r="H749" t="n">
-        <v>2</v>
-      </c>
-      <c r="I749" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L749" t="n">
-        <v>1</v>
-      </c>
-      <c r="M749" t="inlineStr"/>
-    </row>
-    <row r="750">
-      <c r="A750" s="1" t="n">
-        <v>748</v>
-      </c>
-      <c r="B750" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="C750" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="D750" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="E750" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="F750" t="n">
-        <v>86297.0095</v>
-      </c>
-      <c r="G750" t="n">
-        <v>-6605015.465653684</v>
-      </c>
-      <c r="H750" t="n">
-        <v>2</v>
-      </c>
-      <c r="I750" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L750" t="n">
-        <v>1</v>
-      </c>
-      <c r="M750" t="inlineStr"/>
-    </row>
-    <row r="751">
-      <c r="A751" s="1" t="n">
-        <v>749</v>
-      </c>
-      <c r="B751" t="n">
-        <v>13</v>
-      </c>
-      <c r="C751" t="n">
-        <v>13</v>
-      </c>
-      <c r="D751" t="n">
-        <v>13</v>
-      </c>
-      <c r="E751" t="n">
-        <v>13</v>
-      </c>
-      <c r="F751" t="n">
-        <v>241063.1034</v>
-      </c>
-      <c r="G751" t="n">
-        <v>-6363952.362253684</v>
-      </c>
-      <c r="H751" t="n">
-        <v>2</v>
-      </c>
-      <c r="I751" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L751" t="n">
-        <v>1</v>
-      </c>
-      <c r="M751" t="inlineStr"/>
-    </row>
-    <row r="752">
-      <c r="A752" s="1" t="n">
-        <v>750</v>
-      </c>
-      <c r="B752" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C752" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D752" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E752" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F752" t="n">
-        <v>82117.56600000001</v>
-      </c>
-      <c r="G752" t="n">
-        <v>-6281834.796253684</v>
-      </c>
-      <c r="H752" t="n">
-        <v>2</v>
-      </c>
-      <c r="I752" t="n">
-        <v>13</v>
-      </c>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L752" t="n">
-        <v>1</v>
-      </c>
-      <c r="M752" t="inlineStr"/>
-    </row>
-    <row r="753">
-      <c r="A753" s="1" t="n">
-        <v>751</v>
-      </c>
-      <c r="B753" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C753" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D753" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E753" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F753" t="n">
-        <v>110028.5861</v>
-      </c>
-      <c r="G753" t="n">
-        <v>-6281834.796253684</v>
-      </c>
-      <c r="H753" t="n">
-        <v>2</v>
-      </c>
-      <c r="I753" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L753" t="n">
-        <v>1</v>
-      </c>
-      <c r="M753" t="inlineStr"/>
-    </row>
-    <row r="754">
-      <c r="A754" s="1" t="n">
-        <v>752</v>
-      </c>
-      <c r="B754" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C754" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D754" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E754" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F754" t="n">
-        <v>115422.0176</v>
-      </c>
-      <c r="G754" t="n">
-        <v>-6281834.796253684</v>
-      </c>
-      <c r="H754" t="n">
-        <v>2</v>
-      </c>
-      <c r="I754" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L754" t="n">
-        <v>1</v>
-      </c>
-      <c r="M754" t="inlineStr"/>
-    </row>
-    <row r="755">
-      <c r="A755" s="1" t="n">
-        <v>753</v>
-      </c>
-      <c r="B755" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="C755" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="D755" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="E755" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="F755" t="n">
-        <v>200</v>
-      </c>
-      <c r="G755" t="n">
-        <v>-6281634.796253684</v>
-      </c>
-      <c r="H755" t="n">
-        <v>2</v>
-      </c>
-      <c r="I755" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L755" t="n">
-        <v>1</v>
-      </c>
-      <c r="M755" t="inlineStr"/>
-    </row>
-    <row r="756">
-      <c r="A756" s="1" t="n">
-        <v>754</v>
-      </c>
-      <c r="B756" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="C756" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="D756" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="E756" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="F756" t="n">
-        <v>547.5084000000001</v>
-      </c>
-      <c r="G756" t="n">
-        <v>-6282182.304653684</v>
-      </c>
-      <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L756" t="n">
-        <v>1</v>
-      </c>
-      <c r="M756" t="inlineStr"/>
-    </row>
-    <row r="757">
-      <c r="A757" s="1" t="n">
-        <v>755</v>
-      </c>
-      <c r="B757" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="C757" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="D757" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="E757" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="F757" t="n">
-        <v>376.7897513187641</v>
-      </c>
-      <c r="G757" t="n">
-        <v>-6282559.094405003</v>
-      </c>
-      <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L757" t="n">
-        <v>1</v>
-      </c>
-      <c r="M757" t="inlineStr"/>
-    </row>
-    <row r="758">
-      <c r="A758" s="1" t="n">
-        <v>756</v>
-      </c>
-      <c r="B758" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="C758" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="D758" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="E758" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="F758" t="n">
-        <v>441.0789</v>
-      </c>
-      <c r="G758" t="n">
-        <v>-6282559.094405003</v>
-      </c>
-      <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L758" t="n">
-        <v>1</v>
-      </c>
-      <c r="M758" t="inlineStr"/>
-    </row>
-    <row r="759">
-      <c r="A759" s="1" t="n">
-        <v>757</v>
-      </c>
-      <c r="B759" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="C759" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="D759" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="E759" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="F759" t="n">
-        <v>300</v>
-      </c>
-      <c r="G759" t="n">
-        <v>-6282259.094405003</v>
-      </c>
-      <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L759" t="n">
-        <v>1</v>
-      </c>
-      <c r="M759" t="inlineStr"/>
-    </row>
-    <row r="760">
-      <c r="A760" s="1" t="n">
-        <v>758</v>
-      </c>
-      <c r="B760" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="C760" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="D760" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="E760" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="F760" t="n">
-        <v>13658.8964</v>
-      </c>
-      <c r="G760" t="n">
-        <v>-6282259.094405003</v>
-      </c>
-      <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L760" t="n">
-        <v>1</v>
-      </c>
-      <c r="M760" t="inlineStr"/>
-    </row>
-    <row r="761">
-      <c r="A761" s="1" t="n">
-        <v>759</v>
-      </c>
-      <c r="B761" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="C761" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="D761" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="E761" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="F761" t="n">
-        <v>300</v>
-      </c>
-      <c r="G761" t="n">
-        <v>-6282259.094405003</v>
-      </c>
-      <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L761" t="n">
-        <v>1</v>
-      </c>
-      <c r="M761" t="inlineStr"/>
-    </row>
-    <row r="762">
-      <c r="A762" s="1" t="n">
-        <v>760</v>
-      </c>
-      <c r="B762" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C762" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D762" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E762" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F762" t="n">
-        <v>2706.4823</v>
-      </c>
-      <c r="G762" t="n">
-        <v>-6284965.576705003</v>
-      </c>
-      <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L762" t="n">
-        <v>1</v>
-      </c>
-      <c r="M762" t="inlineStr"/>
-    </row>
-    <row r="763">
-      <c r="A763" s="1" t="n">
-        <v>761</v>
-      </c>
-      <c r="B763" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C763" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D763" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E763" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F763" t="n">
-        <v>47291.4707</v>
-      </c>
-      <c r="G763" t="n">
-        <v>-6237674.106005003</v>
-      </c>
-      <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L763" t="n">
-        <v>1</v>
-      </c>
-      <c r="M763" t="inlineStr"/>
-    </row>
-    <row r="764">
-      <c r="A764" s="1" t="n">
-        <v>762</v>
-      </c>
-      <c r="B764" t="n">
-        <v>13</v>
-      </c>
-      <c r="C764" t="n">
-        <v>13</v>
-      </c>
-      <c r="D764" t="n">
-        <v>13</v>
-      </c>
-      <c r="E764" t="n">
-        <v>13</v>
-      </c>
-      <c r="F764" t="n">
-        <v>4293.0565</v>
-      </c>
-      <c r="G764" t="n">
-        <v>-6241967.162505003</v>
-      </c>
-      <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L764" t="n">
-        <v>1</v>
-      </c>
-      <c r="M764" t="inlineStr"/>
-    </row>
-    <row r="765">
-      <c r="A765" s="1" t="n">
-        <v>763</v>
-      </c>
-      <c r="B765" t="n">
-        <v>13</v>
-      </c>
-      <c r="C765" t="n">
-        <v>13</v>
-      </c>
-      <c r="D765" t="n">
-        <v>13</v>
-      </c>
-      <c r="E765" t="n">
-        <v>13</v>
-      </c>
-      <c r="F765" t="n">
-        <v>133101.5717</v>
-      </c>
-      <c r="G765" t="n">
-        <v>-6241967.162505003</v>
-      </c>
-      <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L765" t="n">
-        <v>1</v>
-      </c>
-      <c r="M765" t="inlineStr"/>
-    </row>
-    <row r="766">
-      <c r="A766" s="1" t="n">
-        <v>764</v>
-      </c>
-      <c r="B766" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C766" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="D766" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="E766" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F766" t="n">
-        <v>156416.8639</v>
-      </c>
-      <c r="G766" t="n">
-        <v>-6085550.298605002</v>
-      </c>
-      <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L766" t="n">
-        <v>1</v>
-      </c>
-      <c r="M766" t="inlineStr"/>
-    </row>
-    <row r="767">
-      <c r="A767" s="1" t="n">
-        <v>765</v>
-      </c>
-      <c r="B767" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C767" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D767" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E767" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F767" t="n">
-        <v>107854.6613</v>
-      </c>
-      <c r="G767" t="n">
-        <v>-6193404.959905002</v>
-      </c>
-      <c r="H767" t="n">
-        <v>2</v>
-      </c>
-      <c r="I767" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L767" t="n">
-        <v>1</v>
-      </c>
-      <c r="M767" t="inlineStr"/>
-    </row>
-    <row r="768">
-      <c r="A768" s="1" t="n">
-        <v>766</v>
-      </c>
-      <c r="B768" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="C768" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="D768" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="E768" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="F768" t="n">
-        <v>20211.8449</v>
-      </c>
-      <c r="G768" t="n">
-        <v>-6213616.804805002</v>
-      </c>
-      <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L768" t="n">
-        <v>1</v>
-      </c>
-      <c r="M768" t="inlineStr"/>
-    </row>
-    <row r="769">
-      <c r="A769" s="1" t="n">
-        <v>767</v>
-      </c>
-      <c r="B769" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="C769" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="D769" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="E769" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="F769" t="n">
-        <v>18223.417</v>
-      </c>
-      <c r="G769" t="n">
-        <v>-6231840.221805003</v>
-      </c>
-      <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L769" t="n">
-        <v>1</v>
-      </c>
-      <c r="M769" t="inlineStr"/>
-    </row>
-    <row r="770">
-      <c r="A770" s="1" t="n">
-        <v>768</v>
-      </c>
-      <c r="B770" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="C770" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="D770" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="E770" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="F770" t="n">
-        <v>18632.7004</v>
-      </c>
-      <c r="G770" t="n">
-        <v>-6250472.922205003</v>
-      </c>
-      <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L770" t="n">
-        <v>1</v>
-      </c>
-      <c r="M770" t="inlineStr"/>
-    </row>
-    <row r="771">
-      <c r="A771" s="1" t="n">
-        <v>769</v>
-      </c>
-      <c r="B771" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="C771" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="D771" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="E771" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="F771" t="n">
-        <v>547.5084000000001</v>
-      </c>
-      <c r="G771" t="n">
-        <v>-6250472.922205003</v>
-      </c>
-      <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L771" t="n">
-        <v>1</v>
-      </c>
-      <c r="M771" t="inlineStr"/>
-    </row>
-    <row r="772">
-      <c r="A772" s="1" t="n">
-        <v>770</v>
-      </c>
-      <c r="B772" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="C772" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="D772" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="E772" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="F772" t="n">
-        <v>11145.321</v>
-      </c>
-      <c r="G772" t="n">
-        <v>-6250472.922205003</v>
-      </c>
-      <c r="H772" t="n">
-        <v>2</v>
-      </c>
-      <c r="I772" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L772" t="n">
-        <v>1</v>
-      </c>
-      <c r="M772" t="inlineStr"/>
-    </row>
-    <row r="773">
-      <c r="A773" s="1" t="n">
-        <v>771</v>
-      </c>
-      <c r="B773" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="C773" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="D773" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="E773" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="F773" t="n">
-        <v>10555.1354</v>
-      </c>
-      <c r="G773" t="n">
-        <v>-6250472.922205003</v>
-      </c>
-      <c r="H773" t="n">
-        <v>2</v>
-      </c>
-      <c r="I773" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L773" t="n">
-        <v>1</v>
-      </c>
-      <c r="M773" t="inlineStr"/>
-    </row>
-    <row r="774">
-      <c r="A774" s="1" t="n">
-        <v>772</v>
-      </c>
-      <c r="B774" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="C774" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="D774" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="E774" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="F774" t="n">
-        <v>18643.0193</v>
-      </c>
-      <c r="G774" t="n">
-        <v>-6231829.902905003</v>
-      </c>
-      <c r="H774" t="n">
-        <v>2</v>
-      </c>
-      <c r="I774" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26730,11 +26006,9 @@
         <v>-6237829.902905003</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
-      </c>
-      <c r="I775" t="n">
-        <v>13.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
@@ -26769,11 +26043,9 @@
         <v>-6237829.902905003</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
-      </c>
-      <c r="I776" t="n">
-        <v>13.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
@@ -26808,11 +26080,9 @@
         <v>-6245142.015705003</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
-      </c>
-      <c r="I777" t="n">
-        <v>13.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
@@ -27402,11 +26672,9 @@
         <v>-8105049.885487719</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
-      </c>
-      <c r="I793" t="n">
-        <v>12.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
@@ -27552,9 +26820,11 @@
         <v>-8057553.567287719</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>12.72</v>
+      </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
@@ -27589,9 +26859,11 @@
         <v>-8018276.790187719</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>12.91</v>
+      </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -27626,9 +26898,11 @@
         <v>-8023140.46658772</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>12.93</v>
+      </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -27663,9 +26937,11 @@
         <v>-8027162.58658772</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>12.91</v>
+      </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -27700,9 +26976,11 @@
         <v>-8027162.58658772</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>12.81</v>
+      </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -27737,9 +27015,11 @@
         <v>-8027162.58658772</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>12.81</v>
+      </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -27774,9 +27054,11 @@
         <v>-8032446.58158772</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>12.81</v>
+      </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -27811,9 +27093,11 @@
         <v>-8032446.58158772</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>12.8</v>
+      </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -27848,9 +27132,11 @@
         <v>-8032446.58158772</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>12.8</v>
+      </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -27885,9 +27171,11 @@
         <v>-8032446.58158772</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>12.8</v>
+      </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -27922,9 +27210,11 @@
         <v>-8029005.54188772</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>12.8</v>
+      </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -27959,9 +27249,11 @@
         <v>-8057700.54188772</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>12.81</v>
+      </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -28292,9 +27584,11 @@
         <v>-8149282.57448772</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>12.74</v>
+      </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
@@ -28440,9 +27734,11 @@
         <v>-8113126.19288772</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>12.88</v>
+      </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -28514,9 +27810,11 @@
         <v>-8113126.19288772</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>12.74</v>
+      </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -28551,9 +27849,11 @@
         <v>-8113126.19288772</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>12.74</v>
+      </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -28588,9 +27888,11 @@
         <v>-8114831.43288772</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>12.74</v>
+      </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -28625,9 +27927,11 @@
         <v>-8112399.67288772</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>12.71</v>
+      </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
@@ -28662,9 +27966,11 @@
         <v>-8184121.91338772</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>12.74</v>
+      </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -28699,9 +28005,11 @@
         <v>-8237539.684587721</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>12.73</v>
+      </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -28736,9 +28044,11 @@
         <v>-8237539.684587721</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>12.71</v>
+      </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -29032,9 +28342,11 @@
         <v>-8171322.83238772</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>12.74</v>
+      </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
@@ -29106,9 +28418,11 @@
         <v>-8171322.83238772</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>12.74</v>
+      </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
@@ -29143,9 +28457,11 @@
         <v>-8247015.39558772</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>12.74</v>
+      </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -29180,9 +28496,11 @@
         <v>-8156247.21558772</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -29217,9 +28535,11 @@
         <v>-8155506.865587721</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>12.73</v>
+      </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -29254,9 +28574,11 @@
         <v>-8155506.865587721</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>12.74</v>
+      </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -29291,9 +28613,11 @@
         <v>-8154452.565587721</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>12.74</v>
+      </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -29328,7 +28652,7 @@
         <v>-8211468.08448772</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I845" t="n">
         <v>12.75</v>
@@ -29367,7 +28691,7 @@
         <v>-8211468.08448772</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I846" t="n">
         <v>12.74</v>
@@ -29406,7 +28730,7 @@
         <v>-8211468.08448772</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I847" t="n">
         <v>12.74</v>
@@ -29445,7 +28769,7 @@
         <v>-8211468.08448772</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I848" t="n">
         <v>12.74</v>
@@ -29484,7 +28808,7 @@
         <v>-8210413.904487721</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I849" t="n">
         <v>12.74</v>
@@ -29523,7 +28847,7 @@
         <v>-8210413.904487721</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I850" t="n">
         <v>12.75</v>
@@ -29562,7 +28886,7 @@
         <v>-8210413.904487721</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I851" t="n">
         <v>12.75</v>
@@ -29601,7 +28925,7 @@
         <v>-8210413.904487721</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I852" t="n">
         <v>12.75</v>
@@ -29640,7 +28964,7 @@
         <v>-8210413.904487721</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I853" t="n">
         <v>12.75</v>
@@ -29679,7 +29003,7 @@
         <v>-8214314.314987721</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I854" t="n">
         <v>12.75</v>
@@ -29718,7 +29042,7 @@
         <v>-8214314.314987721</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I855" t="n">
         <v>12.74</v>
@@ -29757,7 +29081,7 @@
         <v>-8476268.473487722</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I856" t="n">
         <v>12.74</v>
@@ -29796,7 +29120,7 @@
         <v>-8540652.017187722</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I857" t="n">
         <v>12.7</v>
@@ -29835,7 +29159,7 @@
         <v>-8540652.017187722</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I858" t="n">
         <v>12.69</v>
@@ -29874,7 +29198,7 @@
         <v>-8533470.295587722</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I859" t="n">
         <v>12.69</v>
@@ -29913,7 +29237,7 @@
         <v>-8533470.295587722</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I860" t="n">
         <v>12.7</v>
@@ -29952,7 +29276,7 @@
         <v>-8663002.687887723</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I861" t="n">
         <v>12.7</v>
@@ -29991,7 +29315,7 @@
         <v>-8662215.291887723</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I862" t="n">
         <v>12.68</v>
@@ -30030,7 +29354,7 @@
         <v>-8662215.291887723</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I863" t="n">
         <v>12.7</v>
@@ -30069,7 +29393,7 @@
         <v>-8678709.883087723</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I864" t="n">
         <v>12.7</v>
@@ -30108,7 +29432,7 @@
         <v>-8655497.785387723</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I865" t="n">
         <v>12.68</v>
@@ -30147,7 +29471,7 @@
         <v>-8655753.119487723</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I866" t="n">
         <v>12.74</v>
@@ -30186,7 +29510,7 @@
         <v>-8655753.119487723</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I867" t="n">
         <v>12.7</v>
@@ -30225,7 +29549,7 @@
         <v>-8655753.119487723</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I868" t="n">
         <v>12.7</v>
@@ -30264,7 +29588,7 @@
         <v>-8710974.823587723</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I869" t="n">
         <v>12.7</v>
@@ -30303,7 +29627,7 @@
         <v>-8710974.823587723</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I870" t="n">
         <v>12.69</v>
@@ -30342,7 +29666,7 @@
         <v>-8708316.590287723</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I871" t="n">
         <v>12.69</v>
@@ -30381,7 +29705,7 @@
         <v>-8708316.590287723</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I872" t="n">
         <v>12.8</v>
@@ -30420,7 +29744,7 @@
         <v>-8708316.590287723</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I873" t="n">
         <v>12.8</v>
@@ -30459,7 +29783,7 @@
         <v>-8708316.590287723</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I874" t="n">
         <v>12.8</v>
@@ -30498,7 +29822,7 @@
         <v>-8714702.426987723</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I875" t="n">
         <v>12.8</v>
@@ -30537,7 +29861,7 @@
         <v>-8678771.727387723</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I876" t="n">
         <v>12.69</v>
@@ -30576,7 +29900,7 @@
         <v>-8675771.727387723</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I877" t="n">
         <v>12.7</v>
@@ -30615,7 +29939,7 @@
         <v>-8682399.026987722</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I878" t="n">
         <v>12.8</v>
@@ -30654,7 +29978,7 @@
         <v>-8654131.680787722</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I879" t="n">
         <v>12.71</v>
@@ -30693,7 +30017,7 @@
         <v>-8762166.977087721</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I880" t="n">
         <v>12.72</v>
@@ -30732,7 +30056,7 @@
         <v>-8762166.977087721</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I881" t="n">
         <v>12.71</v>
@@ -30771,7 +30095,7 @@
         <v>-8830329.92828772</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I882" t="n">
         <v>12.71</v>
@@ -30810,7 +30134,7 @@
         <v>-8830329.92828772</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I883" t="n">
         <v>12.7</v>
@@ -30849,7 +30173,7 @@
         <v>-8830329.92828772</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I884" t="n">
         <v>12.7</v>
@@ -30888,7 +30212,7 @@
         <v>-8974937.060587721</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I885" t="n">
         <v>12.7</v>
@@ -30927,7 +30251,7 @@
         <v>-8958357.703287721</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I886" t="n">
         <v>12.68</v>
@@ -30944,6 +30268,6 @@
       <c r="M886" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest SOC.xlsx
+++ b/BackTest/2020-01-16 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3976513.065456428</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3277325.685256428</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>3641264.270956428</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>3297055.845656428</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2529901.728256428</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1091068.441556428</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>228324.5321564276</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>228324.5321564276</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>228324.5321564276</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>228324.5321564276</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-11800.29334357238</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>254976.8892564276</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>48385.88165642761</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>431110.9619564275</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>629408.1076564275</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>534191.5628564275</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>654302.3830564275</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>375395.1014564275</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>473818.5141564275</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>283110.6863564275</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>93521.2402564275</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>206794.8587564275</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>321798.7746564275</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>109069.2120564275</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>279364.1137564275</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>472446.2599564275</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>600923.4191564275</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>645649.1822564275</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>695553.0652564275</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>596989.2794564276</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>516560.0087564276</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>383243.0515564276</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>301868.2386564275</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>351817.4876564275</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>351817.4876564275</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>351817.4876564275</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>280148.8342564275</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>302269.6699564275</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>302269.6699564275</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>302269.6699564275</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>248112.0442427912</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>206520.5166427912</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>113786.2064427912</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>256611.1168427912</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>115347.3873003411</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-284663.6650996589</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-285663.6650996589</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-298113.7593996589</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-301486.6436996589</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-356474.8821996589</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-98990.37110545553</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-452551.7197999051</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-409599.5338999051</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-188397.7118818839</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-168552.1246818839</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>141065.6565181161</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>114869.3029181161</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>197286.8771181161</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>85395.65181811606</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>85395.65181811606</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>89372.10161811607</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>89372.10161811607</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>3158.984518116049</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>3158.984518116049</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>3158.984518116049</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-79720.32398188395</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-92052.38028188395</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-736904.3627818839</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-735442.6009818839</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -13618,14 +13618,10 @@
         <v>-3614803.053488661</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="J401" t="n">
-        <v>12.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
@@ -13655,19 +13651,11 @@
         <v>-3611777.210588661</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J402" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13696,19 +13684,11 @@
         <v>-3588897.756588661</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J403" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13737,14 +13717,10 @@
         <v>-3574120.252888661</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J404" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
@@ -13774,19 +13750,11 @@
         <v>-3342461.905588661</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J405" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13815,19 +13783,11 @@
         <v>-2993955.983088661</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J406" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14945,7 +14905,7 @@
         <v>-2426266.523180989</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14978,7 +14938,7 @@
         <v>-2374971.187180989</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15011,7 +14971,7 @@
         <v>-2374421.161580989</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15044,7 +15004,7 @@
         <v>-2378421.161580989</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15143,7 +15103,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15176,7 +15136,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15209,7 +15169,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15242,7 +15202,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15275,7 +15235,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15308,7 +15268,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15341,7 +15301,7 @@
         <v>-2372443.729380989</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -25967,17 +25927,11 @@
         <v>-6231829.902905003</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>13.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26010,11 +25964,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26047,11 +25997,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26084,11 +26030,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26121,11 +26063,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26158,11 +26096,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26195,11 +26129,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26232,11 +26162,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26269,11 +26195,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26306,11 +26228,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26343,11 +26261,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26380,11 +26294,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26417,11 +26327,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26454,11 +26360,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26491,11 +26393,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26528,11 +26426,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26565,11 +26459,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26602,11 +26492,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26639,11 +26525,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26676,11 +26558,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26713,11 +26591,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26750,11 +26624,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26787,11 +26657,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26820,17 +26686,11 @@
         <v>-8057553.567287719</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
-      </c>
-      <c r="I797" t="n">
-        <v>12.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26859,17 +26719,11 @@
         <v>-8018276.790187719</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>12.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26898,17 +26752,11 @@
         <v>-8023140.46658772</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
-      </c>
-      <c r="I799" t="n">
-        <v>12.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26937,17 +26785,11 @@
         <v>-8027162.58658772</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
-      </c>
-      <c r="I800" t="n">
-        <v>12.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26976,17 +26818,11 @@
         <v>-8027162.58658772</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
-      </c>
-      <c r="I801" t="n">
-        <v>12.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27015,17 +26851,11 @@
         <v>-8027162.58658772</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
-      </c>
-      <c r="I802" t="n">
-        <v>12.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27054,17 +26884,11 @@
         <v>-8032446.58158772</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
-        <v>12.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27093,17 +26917,11 @@
         <v>-8032446.58158772</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
-      </c>
-      <c r="I804" t="n">
-        <v>12.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27132,17 +26950,11 @@
         <v>-8032446.58158772</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
-      </c>
-      <c r="I805" t="n">
-        <v>12.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27171,17 +26983,11 @@
         <v>-8032446.58158772</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
-      </c>
-      <c r="I806" t="n">
-        <v>12.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27210,17 +27016,11 @@
         <v>-8029005.54188772</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
-      </c>
-      <c r="I807" t="n">
-        <v>12.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27249,17 +27049,11 @@
         <v>-8057700.54188772</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
-      </c>
-      <c r="I808" t="n">
-        <v>12.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27292,11 +27086,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27329,11 +27119,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27366,11 +27152,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27403,11 +27185,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27440,11 +27218,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27477,11 +27251,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27514,11 +27284,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27551,11 +27317,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27584,17 +27346,11 @@
         <v>-8149282.57448772</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
-        <v>12.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27627,11 +27383,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27664,11 +27416,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27701,11 +27449,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27734,17 +27478,11 @@
         <v>-8113126.19288772</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
-      </c>
-      <c r="I821" t="n">
-        <v>12.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27777,11 +27515,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27810,17 +27544,11 @@
         <v>-8113126.19288772</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
-      </c>
-      <c r="I823" t="n">
-        <v>12.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27849,17 +27577,11 @@
         <v>-8113126.19288772</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
-      </c>
-      <c r="I824" t="n">
-        <v>12.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27888,17 +27610,11 @@
         <v>-8114831.43288772</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
-      </c>
-      <c r="I825" t="n">
-        <v>12.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27927,17 +27643,11 @@
         <v>-8112399.67288772</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
-      </c>
-      <c r="I826" t="n">
-        <v>12.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27966,17 +27676,11 @@
         <v>-8184121.91338772</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
-      </c>
-      <c r="I827" t="n">
-        <v>12.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28005,17 +27709,11 @@
         <v>-8237539.684587721</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
-      </c>
-      <c r="I828" t="n">
-        <v>12.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28044,17 +27742,11 @@
         <v>-8237539.684587721</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
-        <v>12.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28087,11 +27779,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28124,11 +27812,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28161,11 +27845,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28198,11 +27878,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28235,11 +27911,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28272,11 +27944,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28309,11 +27977,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28342,17 +28006,11 @@
         <v>-8171322.83238772</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
-      </c>
-      <c r="I837" t="n">
-        <v>12.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28385,11 +28043,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28418,17 +28072,11 @@
         <v>-8171322.83238772</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
-      </c>
-      <c r="I839" t="n">
-        <v>12.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28457,17 +28105,11 @@
         <v>-8247015.39558772</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>12.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28496,17 +28138,11 @@
         <v>-8156247.21558772</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28535,17 +28171,11 @@
         <v>-8155506.865587721</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>12.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28574,17 +28204,11 @@
         <v>-8155506.865587721</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>12.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28613,17 +28237,11 @@
         <v>-8154452.565587721</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>12.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28660,7 +28278,7 @@
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L845" t="n">
@@ -30268,6 +29886,6 @@
       <c r="M886" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest SOC.xlsx
+++ b/BackTest/2020-01-16 BackTest SOC.xlsx
@@ -451,7 +451,7 @@
         <v>3976513.065456428</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3277325.685256428</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>3641264.270956428</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>3297055.845656428</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2529901.728256428</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1091068.441556428</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>228324.5321564276</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>279364.1137564275</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>600923.4191564275</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>695553.0652564275</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>596989.2794564276</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>516560.0087564276</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>302269.6699564275</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>302269.6699564275</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>248112.0442427912</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>206520.5166427912</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>113786.2064427912</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>215325.5998427912</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>256611.1168427912</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>256611.1168427912</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>115347.3873003411</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-89702.40579965894</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-89702.40579965894</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-89702.40579965894</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-74234.47349965894</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-284592.999799659</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-284592.999799659</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-90071.41350545552</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-188397.7118818839</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-168552.1246818839</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-168552.1246818839</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-172324.1128818839</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-40147.66338188393</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>33636.49631811607</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-22970.60808188393</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>163473.029218116</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>163473.029218116</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-2426266.523180989</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-2374971.187180989</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-2374421.161580989</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-2378421.161580989</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-2370122.497980989</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-2372443.729380989</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -28105,11 +28105,17 @@
         <v>-8247015.39558772</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>12.74</v>
+      </c>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28138,11 +28144,17 @@
         <v>-8156247.21558772</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28171,11 +28183,17 @@
         <v>-8155506.865587721</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>12.73</v>
+      </c>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28204,11 +28222,17 @@
         <v>-8155506.865587721</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>12.74</v>
+      </c>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28241,7 +28265,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28270,15 +28298,13 @@
         <v>-8211468.08448772</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>12.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L845" t="n">
